--- a/Results/Lorenz_by_age_PYrrDistNetWorth.xlsx
+++ b/Results/Lorenz_by_age_PYrrDistNetWorth.xlsx
@@ -462,16 +462,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.005632154972266658</v>
+        <v>0.004854158060199548</v>
       </c>
       <c r="C2">
-        <v>0.0245861605567995</v>
+        <v>0.02385602883565608</v>
       </c>
       <c r="D2">
-        <v>0.06516969396807745</v>
+        <v>0.06645552261722731</v>
       </c>
       <c r="E2">
-        <v>0.1620119710505388</v>
+        <v>0.1618653300067957</v>
       </c>
     </row>
   </sheetData>
@@ -509,16 +509,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.005632154972266658</v>
+        <v>0.004854158060199548</v>
       </c>
       <c r="C2">
-        <v>0.0245861605567995</v>
+        <v>0.02385602883565608</v>
       </c>
       <c r="D2">
-        <v>0.06516969396807745</v>
+        <v>0.06645552261722731</v>
       </c>
       <c r="E2">
-        <v>0.1620119710505388</v>
+        <v>0.1618653300067957</v>
       </c>
     </row>
   </sheetData>
